--- a/biology/Virologie/Virus_de_l'œdème_des_pousses_du_cacaoyer/Virus_de_l'œdème_des_pousses_du_cacaoyer.xlsx
+++ b/biology/Virologie/Virus_de_l'œdème_des_pousses_du_cacaoyer/Virus_de_l'œdème_des_pousses_du_cacaoyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_de_l%27%C5%93d%C3%A8me_des_pousses_du_cacaoyer</t>
+          <t>Virus_de_l'œdème_des_pousses_du_cacaoyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le swollen shoot est une maladie virale du cacaoyer qui se développe de manière endémique en Afrique de l’Ouest[1]. Le Virus de l'œdème des pousses du cacaoyer (CSSV, Cacao swollen-shoot virus) est une espèce de phytovirus du genre Badnavirus (famille des Caulimoviridae) qui affecte principalement le cacaoyer (Theobroma cacao). Le virion, bacilliforme, a un génome constitué d'ADN double brin.
-L'un des symptômes visibles sur le cacaoyer est le gonflement des jeunes pousses. Ce virus, présent seulement en Afrique occidentale, est transmis aux cacaoyers, selon un mode semi-persistant, par diverses espèces de cochenilles. Le swollen shoot est transmis par des plusieurs espèces de cochenille : Formicococcus njalensis (Laing), Pseudococcus longispinus, Pseudococcus hargreavesi (Laing) Planococcus kenyae, Planococcus citri, et Ferrisia virgata (Cockerell) (Dufour, 1991). Ces insectes se déplacent lentement, mais peuvent être transportés par plusieurs espèces de fourmis[2].
-L’origine du nom de cette maladie est liée aux gonflements des rameaux qui constituent l’un de ses symptômes caractéristiques. Mais, cette maladie provoque aussi des bandes rouges et des mosaïques le long des nervures des feuilles ainsi qu’une sévère défoliation. Il s’ensuit une baisse rapide de la production et une chute spectaculaire du rendement. Finalement l’arbre meurt au bout de trois à cinq ans après le début de l’infection[1].
-Ce virus semblait avoir disparu dans les années 1950 en Côte d'Ivoire, mais y a ressurgi en 2003[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le swollen shoot est une maladie virale du cacaoyer qui se développe de manière endémique en Afrique de l’Ouest. Le Virus de l'œdème des pousses du cacaoyer (CSSV, Cacao swollen-shoot virus) est une espèce de phytovirus du genre Badnavirus (famille des Caulimoviridae) qui affecte principalement le cacaoyer (Theobroma cacao). Le virion, bacilliforme, a un génome constitué d'ADN double brin.
+L'un des symptômes visibles sur le cacaoyer est le gonflement des jeunes pousses. Ce virus, présent seulement en Afrique occidentale, est transmis aux cacaoyers, selon un mode semi-persistant, par diverses espèces de cochenilles. Le swollen shoot est transmis par des plusieurs espèces de cochenille : Formicococcus njalensis (Laing), Pseudococcus longispinus, Pseudococcus hargreavesi (Laing) Planococcus kenyae, Planococcus citri, et Ferrisia virgata (Cockerell) (Dufour, 1991). Ces insectes se déplacent lentement, mais peuvent être transportés par plusieurs espèces de fourmis.
+L’origine du nom de cette maladie est liée aux gonflements des rameaux qui constituent l’un de ses symptômes caractéristiques. Mais, cette maladie provoque aussi des bandes rouges et des mosaïques le long des nervures des feuilles ainsi qu’une sévère défoliation. Il s’ensuit une baisse rapide de la production et une chute spectaculaire du rendement. Finalement l’arbre meurt au bout de trois à cinq ans après le début de l’infection.
+Ce virus semblait avoir disparu dans les années 1950 en Côte d'Ivoire, mais y a ressurgi en 2003.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virus_de_l%27%C5%93d%C3%A8me_des_pousses_du_cacaoyer</t>
+          <t>Virus_de_l'œdème_des_pousses_du_cacaoyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce virus a été décrit en 1947 par le botaniste britannique spécialiste des maladies des plantes Adrian Frank Posnette (d) (1914-2004).
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Virus_de_l%27%C5%93d%C3%A8me_des_pousses_du_cacaoyer</t>
+          <t>Virus_de_l'œdème_des_pousses_du_cacaoyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus n'est pas présent en Amérique, continent d'origine du cacaoyer et n'a donc commencé à frapper cet arbre qu'à partir du XIXe siècle lors de son introduction au Ghana[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus n'est pas présent en Amérique, continent d'origine du cacaoyer et n'a donc commencé à frapper cet arbre qu'à partir du XIXe siècle lors de son introduction au Ghana.
 </t>
         </is>
       </c>
